--- a/data/trans_bre/P10_3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P10_3-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,17 +646,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-35,47%</t>
+          <t>-35,44%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>33,03%</t>
         </is>
       </c>
     </row>
@@ -669,12 +669,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 0,89</t>
+          <t>-2,96; 0,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 2,16</t>
+          <t>-2,49; 2,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-57,51%</t>
+          <t>-53,99%</t>
         </is>
       </c>
     </row>
@@ -729,12 +729,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,46; -0,39</t>
+          <t>-7,79; -0,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 0,54</t>
+          <t>-2,67; 0,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-59,92%</t>
+          <t>-58,55%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,11</t>
+          <t>-1,64; 2,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 0,5</t>
+          <t>-9,7; 0,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-68,49; 368,11</t>
+          <t>-69,97; 370,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 48,01</t>
+          <t>-100,0; 69,17</t>
         </is>
       </c>
     </row>
@@ -826,17 +826,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,95</t>
+          <t>-4,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-53,08%</t>
+          <t>-49,91%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 5,36</t>
+          <t>-5,47; 5,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,41; -0,31</t>
+          <t>-12,46; 0,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-48,58; 114,75</t>
+          <t>-50,05; 118,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-82,16; 1,79</t>
+          <t>-81,61; 13,32</t>
         </is>
       </c>
     </row>
@@ -886,17 +886,17 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,88</t>
+          <t>9,22</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>37,87%</t>
+          <t>37,84%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>42,43%</t>
+          <t>48,73%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,53; 16,74</t>
+          <t>1,08; 17,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 18,88</t>
+          <t>-0,35; 18,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,74; 85,2</t>
+          <t>3,12; 88,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 124,65</t>
+          <t>-2,03; 130,62</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>22,54%</t>
+          <t>24,62%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,64</t>
+          <t>0,49; 4,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 3,68</t>
+          <t>-1,05; 3,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,44; 95,13</t>
+          <t>5,82; 87,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 79,28</t>
+          <t>-14,88; 84,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P10_3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P10_3-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,99 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="inlineStr"/>
+      <c r="F4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="6" t="inlineStr"/>
+      <c r="F5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="6" t="inlineStr"/>
+      <c r="F6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-35,44%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>33,03%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,96; 0,89</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,49; 2,13</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.2441215816124575</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.2137348850313764</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.3544017357343087</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.2565536339782706</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,22</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,83</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-53,99%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.955136340412223</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.630596624557946</v>
+      </c>
+      <c r="E8" s="6" t="inlineStr"/>
+      <c r="F8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,79; -0,38</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,67; 0,73</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.8870966090785677</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.043480439118469</v>
+      </c>
+      <c r="E9" s="6" t="inlineStr"/>
+      <c r="F9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +688,119 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,29</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>17,91%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-58,55%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-2.219569229776866</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.8782618601268992</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.5837119842350065</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,64; 2,23</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-9,7; 0,7</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-69,97; 370,36</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 69,17</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.785197346162734</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.713832097261714</v>
+      </c>
+      <c r="E11" s="6" t="inlineStr"/>
+      <c r="F11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-0.3812850515838776</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.5885931963336684</v>
+      </c>
+      <c r="E12" s="6" t="inlineStr"/>
+      <c r="F12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,4</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-4,63</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,16%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-49,91%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-5,47; 5,45</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-12,46; 0,47</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-50,05; 118,08</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-81,61; 13,32</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.279620229794916</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.297396197777172</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.179093543369837</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.60696587583855</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>9,37</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>9,22</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>37,84%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>48,73%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.635806640403437</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-9.21718368406925</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.6996601742939887</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>1,08; 17,35</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-0,35; 18,18</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>3,12; 88,58</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-2,03; 130,62</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.232634372528213</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.5580519008632892</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>3.703583865130377</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.5722762360753596</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +808,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>2,55</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,35</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>43,21%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>24,62%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.3969757093177553</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-4.980000801566956</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.0516369526176885</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>-0.5255736718327685</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 4,44</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-1,05; 3,54</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>5,82; 87,03</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-14,88; 84,67</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-5.474432063625887</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-12.76142890999657</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.5004568400609033</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.8243272700382022</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>5.446777081166611</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.1772275086715956</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>1.180834552364751</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.05122540312573722</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>9.366658708374043</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>8.110679562534241</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.378443872095459</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.3849080978675057</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>1.084003592133675</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-2.493115359316744</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.0311681524488052</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.104217562272347</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>17.35102337081367</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>17.85245943494824</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.88576298689495</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>1.227558024476888</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>2.549599416079792</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.165516709469731</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.4320529907825446</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.1995151247772303</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0.4852218695637494</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-1.448165205088493</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>0.05824693199882951</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.1940655118857071</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>4.438510374630657</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>3.573430681824869</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.8702545175504097</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.8247267422935566</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -997,16 +998,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
